--- a/The Rurik Empire/docs/owners.xlsx
+++ b/The Rurik Empire/docs/owners.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1718723238" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1718723238" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1718723238" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1718723238"/>
+      <pm:revision xmlns:pm="smNativeData" day="1718736808" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1718736808" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1718736808" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1718736808"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -91,22 +91,55 @@
     <t>Изяслав</t>
   </si>
   <si>
+    <t>Великий князь Киевский в 1054—1068, 1069—1073 и с 1077, Новгородский князь в 1052—1054. В довольно короткое правление князя была пересмотрена "Русская правда" Ярослава и на её основе создана "Правда Ярославичей". Изяслава не любили киевляне, поэтому он несколько раз скрывался за границей.</t>
+  </si>
+  <si>
     <t>Святослав 2</t>
   </si>
   <si>
+    <t>Третий сын Ярослава Мудрого и Ингегерды Шведской, князь черниговский, с 1073 великий князь Киевский. В правление Святослава были составлены "Изборники", которые включали в себя миниатюры из жизни князя. Также Святослав построил множество монастырей на Руси.</t>
+  </si>
+  <si>
+    <t>Святополк 2</t>
+  </si>
+  <si>
+    <t>Князь полоцкий (1069-1071), новгородский (1078-1088), туровский (1088-1093), великий князь Киевский (1093-1113). Сын великого князя киевского Изяслава Ярославича. Во время правление Святополка прошла тяжёлая русско-половецкая война 1093-1094 годов. Также на Руси начались съезды князей с целью укрепить государство от иноземных врагов, прекратить междоусобицы и централизовать великокняжескую власть.</t>
+  </si>
+  <si>
+    <t>Владимир 2 Мономах</t>
+  </si>
+  <si>
+    <t>Правление Владимира II было периодом последнего усиления Киевской Руси. В дальнейшем на Руси начнутся множественные междоусобицы, из-за которых князья не смогут объединиться перед лицом врага.</t>
+  </si>
+  <si>
+    <t>Мстислав Великий</t>
+  </si>
+  <si>
+    <t>Великий князь Киевский (1125-1132), сын Владимира Мономаха и английской принцессы Гиты Уэссекской. В Европе был известен как Гаральд. В правление Мстислава I Киевская Русь завоевала множество балтийский племён (чудь, литва) и воевала с Полоцким княжеством.</t>
+  </si>
+  <si>
+    <t>Ярополк 2</t>
+  </si>
+  <si>
+    <t>Сын Владимира Мономаха, князь переяславский, великий князь киевский с 1132. При Ярополке II Киевская Русь распалась на самостоятельные удельные княжества, правители которых погрязли в многочилсенных междоусобицах. Князь безуспешно воевал с мятежным Полоцким княжеством (1132) и со своими братьями (1132-1136).</t>
+  </si>
+  <si>
     <t>Изяслав 2</t>
   </si>
   <si>
-    <t>Владимир 2 Мономах</t>
-  </si>
-  <si>
-    <t>Дмитрий</t>
-  </si>
-  <si>
-    <t>Андрей Ростовский</t>
+    <t>Второй сын Мстислава Великого, внук Владимира Мономаха, великий князь Киевский (1146-1149, 1150, 1151-1154), князь Волынский. В борьбе за верховную власть противостоял Ольговичам, Давыдовичам и своему дяде Юрию Долгорукому.</t>
   </si>
   <si>
     <t>Юрий Долгорукий</t>
+  </si>
+  <si>
+    <t>Сын Владимира Мономаха, князь Ростово-суздальский и великий князь киевский. Традиционно считается основателем Москвы. Начиная с 1132 года он отстаивал на юге интересы свои и братьев, борясь за Переяславль, затем и за Киев. Был главным соперником Изяслава II за Киевское княжество.</t>
+  </si>
+  <si>
+    <t>Ростислав Мстиславович</t>
+  </si>
+  <si>
+    <t>Сын Мстислава Великого и внук Владимира Мономаха, основатель Великого княжества Смоленского, князь новгородский (1154), великий князь Киевский (1154—1155, 1159—1161, 1161—1167), русский святой.</t>
   </si>
 </sst>
 </file>
@@ -132,7 +165,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718723238" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718736808" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -148,7 +181,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1718723238" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718736808" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -170,7 +203,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1718723238" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1718736808" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -192,7 +225,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718723238"/>
+          <pm:border xmlns:pm="smNativeData" id="1718736808"/>
         </ext>
       </extLst>
     </border>
@@ -211,7 +244,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1718723238"/>
+          <pm:border xmlns:pm="smNativeData" id="1718736808"/>
         </ext>
       </extLst>
     </border>
@@ -231,7 +264,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1718723238" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1718736808" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -497,13 +530,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
   <cols>
-    <col min="2" max="2" width="19.205357" customWidth="1"/>
+    <col min="2" max="2" width="21.625000" customWidth="1"/>
     <col min="3" max="3" width="45.642857" customWidth="1" style="1"/>
   </cols>
   <sheetData>
@@ -617,70 +650,103 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="n">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="n">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="n">
         <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -898,30 +964,35 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:2">
       <c r="A63" t="n">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63"/>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="n">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64"/>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="n">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65"/>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66"/>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="n">
         <v>66</v>
       </c>
+      <c r="B67"/>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="n">
@@ -1027,7 +1098,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1718723238" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1718736808" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1036,16 +1107,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1718723238" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1718723238" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718723238" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1718723238" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1718736808" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1718736808" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718736808" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718736808" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718723238" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718736808" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
